--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/50/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/50/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2142142142142142</v>
+        <v>0.4617461746174618</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1955.955955955956</v>
+        <v>1168.856885688569</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0871871871871872</v>
+        <v>0.04135413541354135</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06706706706706707</v>
+        <v>0.6786678667866787</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292.2922922922923</v>
+        <v>1464.716471647165</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>649.6496496496497</v>
+        <v>955.1755175517552</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.2352352352353</v>
+        <v>968.2286228622862</v>
       </c>
     </row>
   </sheetData>
